--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H2">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I2">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J2">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>176.3106706462267</v>
+        <v>15.42743312506566</v>
       </c>
       <c r="R2">
-        <v>1586.79603581604</v>
+        <v>138.846898125591</v>
       </c>
       <c r="S2">
-        <v>0.03613241131005568</v>
+        <v>0.004994703314704734</v>
       </c>
       <c r="T2">
-        <v>0.03613241131005568</v>
+        <v>0.004994703314704735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H3">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I3">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J3">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>187.6396186238777</v>
+        <v>45.57712744042633</v>
       </c>
       <c r="R3">
-        <v>1688.756567614899</v>
+        <v>410.1941469638369</v>
       </c>
       <c r="S3">
-        <v>0.03845412108824642</v>
+        <v>0.01475580724647922</v>
       </c>
       <c r="T3">
-        <v>0.03845412108824641</v>
+        <v>0.01475580724647922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H4">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I4">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J4">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>52.538912428388</v>
+        <v>6.072592408130665</v>
       </c>
       <c r="R4">
-        <v>472.850211855492</v>
+        <v>54.65333167317599</v>
       </c>
       <c r="S4">
-        <v>0.01076711685508037</v>
+        <v>0.00196603007019108</v>
       </c>
       <c r="T4">
-        <v>0.01076711685508037</v>
+        <v>0.00196603007019108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.46059</v>
       </c>
       <c r="I5">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J5">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>1067.2044356652</v>
+        <v>384.4503747929099</v>
       </c>
       <c r="R5">
-        <v>9604.8399209868</v>
+        <v>3460.05337313619</v>
       </c>
       <c r="S5">
-        <v>0.2187086548989661</v>
+        <v>0.1244675990977243</v>
       </c>
       <c r="T5">
-        <v>0.2187086548989661</v>
+        <v>0.1244675990977243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.46059</v>
       </c>
       <c r="I6">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J6">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>1135.77829729737</v>
@@ -818,10 +818,10 @@
         <v>10222.00467567633</v>
       </c>
       <c r="S6">
-        <v>0.2327619108053207</v>
+        <v>0.3677135126947262</v>
       </c>
       <c r="T6">
-        <v>0.2327619108053207</v>
+        <v>0.3677135126947262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.46059</v>
       </c>
       <c r="I7">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J7">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>318.01682894796</v>
+        <v>151.32850736376</v>
       </c>
       <c r="R7">
-        <v>2862.15146053164</v>
+        <v>1361.95656627384</v>
       </c>
       <c r="S7">
-        <v>0.06517311076493959</v>
+        <v>0.04899330894593488</v>
       </c>
       <c r="T7">
-        <v>0.06517311076493959</v>
+        <v>0.04899330894593489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H8">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I8">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J8">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>822.1337814452932</v>
+        <v>310.522314594025</v>
       </c>
       <c r="R8">
-        <v>7399.204033007639</v>
+        <v>2794.700831346225</v>
       </c>
       <c r="S8">
-        <v>0.168484844588211</v>
+        <v>0.1005330453497565</v>
       </c>
       <c r="T8">
-        <v>0.168484844588211</v>
+        <v>0.1005330453497566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H9">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I9">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J9">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>874.9604810802342</v>
+        <v>917.373291500675</v>
       </c>
       <c r="R9">
-        <v>7874.644329722109</v>
+        <v>8256.359623506076</v>
       </c>
       <c r="S9">
-        <v>0.1793109394148392</v>
+        <v>0.2970038750280119</v>
       </c>
       <c r="T9">
-        <v>0.1793109394148392</v>
+        <v>0.297003875028012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H10">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I10">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J10">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>244.9880916989079</v>
+        <v>122.2287230074</v>
       </c>
       <c r="R10">
-        <v>2204.892825290171</v>
+        <v>1100.0585070666</v>
       </c>
       <c r="S10">
-        <v>0.05020689027434102</v>
+        <v>0.03957211825247105</v>
       </c>
       <c r="T10">
-        <v>0.05020689027434101</v>
+        <v>0.03957211825247106</v>
       </c>
     </row>
   </sheetData>
